--- a/tips2_1way_UD_ANOVA_2.xlsx
+++ b/tips2_1way_UD_ANOVA_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneek\Documents\Upwork\ANOVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8F9C63-A2D1-47E8-96CB-745E322048AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064F6E0E-A3A7-459D-B50E-2793A0C6F4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AF7F9271-B240-47D5-90F3-930DB8FA28E5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AF7F9271-B240-47D5-90F3-930DB8FA28E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -638,8 +638,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3800,8 +3800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A794D8D9-3C4C-4E5E-9064-F9DA927DBACD}">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4002,5 +4002,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C12" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>